--- a/FAQ_EXFSRI_2024.xlsx
+++ b/FAQ_EXFSRI_2024.xlsx
@@ -5,25 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Univers" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Codification" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Recolte" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sciages_Approv" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="SriProd" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Autres activités" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Connexes" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Controle" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="UNIVERS" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CODIFICATION " sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="RECOLTE " sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="STOCKS ET APPROV" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="SCIAGES" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="AUTRES PRODUITS TRANSFORMES" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="CONNEXES" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CONTROLES" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'RECOLTE '!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="275">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -37,65 +40,65 @@
     <t>Sujets abordés</t>
   </si>
   <si>
-    <t>Univers</t>
+    <t>UNIVERS</t>
   </si>
   <si>
     <t>Entreprises entrant dans le champ, précisions sur les définitions, types de répondants</t>
   </si>
   <si>
-    <t>Codification</t>
+    <t>CODIFICATION</t>
   </si>
   <si>
     <t>Onglets Identification, Activité et Fin</t>
   </si>
   <si>
-    <t>Récolte</t>
+    <t>RÉCOLTE</t>
   </si>
   <si>
     <t>Définitions, précisions sur les réponses attendues, Onglets ExfRecolte, Recolte9K99, DestRecolte</t>
   </si>
   <si>
-    <t>Sciages</t>
+    <t>SCIAGES</t>
   </si>
   <si>
     <t>Définitions, précisions sur les réponses attendues, Onglets SriSciage, SriApprovStock</t>
   </si>
   <si>
-    <t>SciProd</t>
-  </si>
-  <si>
-    <t>Définitions, précisions sur les réponses attendues, Onglet SriProd pour Merrains, Bois sous Rail et Sciages</t>
-  </si>
-  <si>
-    <t>Autres activités</t>
+    <t>AUTRES PRODUITS TRANSFORMÉS</t>
   </si>
   <si>
     <t>Définitions, précisions pour Produits finis, Onglet SriAutrTransf</t>
   </si>
   <si>
-    <t>Connexes</t>
+    <t>PRODUITS CONNEXES</t>
   </si>
   <si>
     <t>Définitions, précisions sur les réponses attendues, Onglet SriConnexes</t>
   </si>
   <si>
-    <t>Contrôles</t>
+    <t>CONTRÖLES</t>
   </si>
   <si>
     <t>Les contrôles CAPIBARA : compléments d'information sur les plus importants</t>
   </si>
   <si>
-    <t>Sujets</t>
-  </si>
-  <si>
-    <t>Observations</t>
+    <t>Sous-thème</t>
+  </si>
+  <si>
+    <t>Chapitre</t>
+  </si>
+  <si>
+    <t>Sujet</t>
+  </si>
+  <si>
+    <t>Réponse</t>
   </si>
   <si>
     <t>Objectifs de l'enquête</t>
   </si>
   <si>
     <t>Pour la récolte, disposer du volume total de bois commercialisé en France en recherchant l'exhaustivité et en évitant les double-comptes. 
-Pour les sciages, bois sous rails, merrains et produits finis, il s'agit de recueillir les données obligatoire pour l'Eurostat sur la Production Commercialisés par la France en recherchant l'exhaustivité et en évitant les double-comptes. </t>
+Pour les sciages, bois sous rails, merrains et produits finis, il s'agit de recueillir les données obligatoire pour l'Eurostat sur la Production Commercialisés par la France en recherchant l'exhaustivité et en évitant les double-comptes.</t>
   </si>
   <si>
     <t>Définition Exploitant forestier entrant dans le champ de l'enquête</t>
@@ -123,7 +126,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> forestiers et </t>
+      <t>forestiers et</t>
     </r>
     <r>
       <rPr>
@@ -144,7 +147,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> qui récoltent du bois en France métropolitaine et le vendent abattu (…) ou approvisionnent leur propre entreprise".
+      <t>qui récoltent du bois en France métropolitaine et le vendent abattu (…) ou approvisionnent leur propre entreprise".
 Actuellement, nous enquêtons les exploitants forestiers sur la base de leur code NAF 02.20Z, toutes les coopératives forestières, l'Office National des Forêts et une partie des groupements forestiers</t>
     </r>
   </si>
@@ -153,7 +156,7 @@
   </si>
   <si>
     <r>
-      <t>1- </t>
+      <t>1-</t>
     </r>
     <r>
       <rPr>
@@ -174,7 +177,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> propriétaires des coupes</t>
+      <t>propriétaires des coupes</t>
     </r>
     <r>
       <rPr>
@@ -184,8 +187,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>, soit parce qu’ils les ont achetées sur pied, soit parce qu’elles sont issues de leurs propriétés soit parce qu’ils ont été cédées gratuitement ;
-</t>
+      <t>, soit parce qu’ils les ont achetées sur pied, soit parce qu’elles sont issues de leurs propriétés soit parce qu’ils ont été cédées gratuitement ;</t>
     </r>
     <r>
       <rPr>
@@ -206,7 +208,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> ils </t>
+      <t>ils</t>
     </r>
     <r>
       <rPr>
@@ -227,8 +229,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>, le tri et généralement la livraison du bois chez l’utilisateur. Ces prestations peuvent être réalisées directement par le propriétaire des bois, par ses salariés ou confiées à des sous-traitants (ces derniers sont appelés entrepreneurs de travaux forestiers au sens du 1° de l’article L.722-3 du Code Rural) ;
-</t>
+      <t>, le tri et généralement la livraison du bois chez l’utilisateur. Ces prestations peuvent être réalisées directement par le propriétaire des bois, par ses salariés ou confiées à des sous-traitants (ces derniers sont appelés entrepreneurs de travaux forestiers au sens du 1° de l’article L.722-3 du Code Rural) ;</t>
     </r>
     <r>
       <rPr>
@@ -249,7 +250,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> ils</t>
+      <t>ils</t>
     </r>
     <r>
       <rPr>
@@ -260,7 +261,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> vendent</t>
+      <t>vendent</t>
     </r>
     <r>
       <rPr>
@@ -270,7 +271,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> ou revendent le bois, directement ou par l’intermédiaire d’un courtier ou d’un négociant, </t>
+      <t>ou revendent le bois, directement ou par l’intermédiaire d’un courtier ou d’un négociant,</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +319,7 @@
   <si>
     <r>
       <t>Ce sont des entités ayant plusieurs activités dont une est de commercialiser du bois pour alimenter l'industrie. Elles peuvent :
-- acheter le bois sur pied, l'exploiter et le revendre comme un exploitant forestier "classique" </t>
+- acheter le bois sur pied, l'exploiter et le revendre comme un exploitant forestier "classique"</t>
     </r>
     <r>
       <rPr>
@@ -329,8 +330,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>=&gt; champ de l'enquête EXF
-</t>
+      <t>=&gt; champ de l'enquête EXF</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>- couper le bois, le vendre pour le compte du propriétaire et reverser l'argent au propriétaire : cas particulier où malqrè le fait que la coopérative n'achête pas le bois, </t>
+      <t>- couper le bois, le vendre pour le compte du propriétaire et reverser l'argent au propriétaire : cas particulier où malqrè le fait que la coopérative n'achête pas le bois,</t>
     </r>
     <r>
       <rPr>
@@ -361,7 +361,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>. Il est plus simple de faire cela que de contacter tous les propriétaires pour qu'ils répondent à l'enquête </t>
+      <t>. Il est plus simple de faire cela que de contacter tous les propriétaires pour qu'ils répondent à l'enquête</t>
     </r>
     <r>
       <rPr>
@@ -372,8 +372,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>=&gt; champ de l'enquête EXF
-</t>
+      <t>=&gt; champ de l'enquête EXF</t>
     </r>
     <r>
       <rPr>
@@ -383,7 +382,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>- couper le bois, le mettre bord de route à disposition du propriétaire qui va le vendre. Elle intervient alors au titre de prestataire de service forestier </t>
+      <t>- couper le bois, le mettre bord de route à disposition du propriétaire qui va le vendre. Elle intervient alors au titre de prestataire de service forestier</t>
     </r>
     <r>
       <rPr>
@@ -412,7 +411,7 @@
   </si>
   <si>
     <r>
-      <t>L'ONF vend du bois sur pied, qui n'entre pas dans le champ (car déclaré par les acheteurs) et vend du bois bord de route (appelé bois fasconné) </t>
+      <t>L'ONF vend du bois sur pied, qui n'entre pas dans le champ (car déclaré par les acheteurs) et vend du bois bord de route (appelé bois fasconné)</t>
     </r>
     <r>
       <rPr>
@@ -437,7 +436,7 @@
   </si>
   <si>
     <r>
-      <t>Ce sont des propriétaires qui se sont groupés pour gérer et/ou commercialiser leurs bois. A ce titre, c'est la même gestion que l'ONF : soit vente sur pied (dans ce cas Hors Champ), soit vend bord de route après coupe </t>
+      <t>Ce sont des propriétaires qui se sont groupés pour gérer et/ou commercialiser leurs bois. A ce titre, c'est la même gestion que l'ONF : soit vente sur pied (dans ce cas Hors Champ), soit vend bord de route après coupe</t>
     </r>
     <r>
       <rPr>
@@ -448,7 +447,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>=&gt; champ de l'enquête EXF. </t>
+      <t>=&gt; champ de l'enquête EXF.</t>
     </r>
     <r>
       <rPr>
@@ -473,8 +472,7 @@
   </si>
   <si>
     <r>
-      <t>Toute entreprises produisant et/ou commercialisant les produits suivant est econcerné par le volet "Scieries" :
-</t>
+      <t>Toute entreprises produisant et/ou commercialisant les produits suivant est econcerné par le volet "Scieries" :</t>
     </r>
     <r>
       <rPr>
@@ -493,8 +491,7 @@
 - panneaux pour parquets,
 - fibre, laine et farine de bois,
 - bois injectés ou imprégnés,
-- produits connexes de ces activités (écorces, sciures, copeaux, chutes, plaquettes et autres sous produits).
-</t>
+- produits connexes de ces activités (écorces, sciures, copeaux, chutes, plaquettes et autres sous produits).</t>
     </r>
     <r>
       <rPr>
@@ -532,7 +529,7 @@
     <t>Déroulage/tranchage</t>
   </si>
   <si>
-    <t>Cas particulier qui est anecdotique car la majorité des déroulage/tranchage fait moins de 6 mm (exemple : boite de camembert pour le déroulage). </t>
+    <t>Cas particulier qui est anecdotique car la majorité des déroulage/tranchage fait moins de 6 mm (exemple : boite de camembert pour le déroulage).</t>
   </si>
   <si>
     <t>Autres produits</t>
@@ -541,6 +538,9 @@
     <t>Il existe quelques entreprises qui ne font que ces produits mais attention, elles doivent déclarer leurs connexes.</t>
   </si>
   <si>
+    <t>Connexes</t>
+  </si>
+  <si>
     <t>Toutes les entreprises transformant du bois produisent des connxes qui doivent être déclarés même s'ils ne sont pas vendu ou s'il sont stockés.</t>
   </si>
   <si>
@@ -551,8 +551,7 @@
   </si>
   <si>
     <r>
-      <t>Question d'un expert forestier :
-</t>
+      <t>Question d'un expert forestier :</t>
     </r>
     <r>
       <rPr>
@@ -580,10 +579,16 @@
 Par conséquent, par exemple, s'il gère 10 GF mais que la coupe vendu bord de route ne concerne que 3 GF, alors il doit ventiler les bois de cette coupe dans les 3 déclarations par GF. Enfin, si ces GF vendent en plus du bois sur pied, bien évidemment, celui-ci ne devra pas être déclaré dans EXF.</t>
   </si>
   <si>
+    <t>Sujets</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
     <t>ACCEPT :</t>
   </si>
   <si>
-    <t>Ne pas confondre les point 2 et 3 : lorsqu'on a eu au moins un contact avec la personne puis plus rien, il ne faut pas le mettre en "injoignable" mais en "refuse de répondre" . </t>
+    <t>Ne pas confondre les point 2 et 3 : lorsqu'on a eu au moins un contact avec la personne puis plus rien, il ne faut pas le mettre en "injoignable" mais en "refuse de répondre" .</t>
   </si>
   <si>
     <t>MAJC :</t>
@@ -598,23 +603,30 @@
   </si>
   <si>
     <t>On n'avait pas pensé à ce type de cas. Il faudra qu'on revoit pour l'année prochaine les modalités de la variable MAJC.
-Tu peux codifier cette unité en code 2- active en 2023 avec cessation réalisée en 2024 en mettant en commentaire que cette unité à été reprise en juillet 2023 par la société xxx.
-</t>
+Tu peux codifier cette unité en code 2- active en 2023 avec cessation réalisée en 2024 en mettant en commentaire que cette unité à été reprise en juillet 2023 par la société xxx.</t>
   </si>
   <si>
     <t>Quand tu dis qu'en fin de campagne, pour chaque questionnaire collecté, le code VALIDSRISE prendra la modalité 5-NPAI ou 7- CAPI validé, ceux qui ont, par exemple le code 6-À expertiser par le SSP tout en ayant fait le choix "questionnaire incomplet" dans ce même onglet, finiront par soit 5 ou 7 ou pourront-ils conserver cette validation ?.</t>
   </si>
   <si>
-    <t>En fin de campagne, pour chaque questionnaires collecté le code VALIDSRISE prendra la modalité 5-NPAI, 6-A expertiser par le SSP ou 7-CAPI validé.
-</t>
-  </si>
-  <si>
-    <t>Onglet EXFRecolte : généralités</t>
+    <t>En fin de campagne, pour chaque questionnaires collecté le code VALIDSRISE prendra la modalité 5-NPAI, 6-A expertiser par le SSP ou 7-CAPI validé.</t>
+  </si>
+  <si>
+    <t>Généralités </t>
+  </si>
+  <si>
+    <t>Évolution de la récolte de bois d'un déclarant</t>
   </si>
   <si>
     <t>La récolte de bois étant liée aux coupes achetées, il peut y avoir des variations d'une année sur l'autre importante concernant les essences exploitées et les départements de récolte. Cependant, l'évolution du volume total est à surveiller car un exploitant a besoin d'un certain volume régulier pour faire tourner son entreprise. Par contre, cela n'est pas le cas des propriétaires, notamment les groupements forestiers. En effet, il récolte les coupes prévues dans leur plan de gestion et donc peuvent vendre peu (ou rien) une année et beaucoup l'année suivante).</t>
   </si>
   <si>
+    <t>Récolte par département</t>
+  </si>
+  <si>
+    <t>Généralités sur les grumes de feuillus</t>
+  </si>
+  <si>
     <t>Chêne (100 et 110)</t>
   </si>
   <si>
@@ -627,7 +639,7 @@
     <t>Voici la liste exhaustive des feuillus de cette catégorie : noyer, frêne, érable, merisier (i.e. cerisier sauvage), alisier, cormier, pommier, poirier, tilleul, aulne glutineux, robinier faux accacia.</t>
   </si>
   <si>
-    <t>Autres feuillus (270) </t>
+    <t> Autres feuillus (270)</t>
   </si>
   <si>
     <t>Attention, uniquement si les essences d'arbres ne se retrouvent pas dans les autres essences déjà citées. Voici les essences entrant dans cette catégorie : charme, bouleau, orme, tremble, saule, platane, olivier, eucalyptus.
@@ -647,11 +659,13 @@
     <t>L'épidémie de scolyte étant toujours présente en France, il faut vérifier lorsqu'une entreprise déclare un gros volume d'épicéa (&gt; 10000 m3), elle n'a pas oublié de déclarer (une estimation suffit) un volume de "récolte de bois sanitaire" dans l'onglet Recolte9K99 (lui poser la question).</t>
   </si>
   <si>
-    <t>Autres conifères (370) et localisation majoritaire des essences ci-dessous :</t>
-  </si>
-  <si>
-    <t>Attention, uniquement si les essences d'arbres ne se retrouvent pas dans les autres essences déjà citées. Les essences entrant dans cette catégorie sont listées lignes à ci-dessous.
-Point de vigilence : si une entreprise renseigne totalement sa récolte dans cette catégorie "Autres", il y a de fortes chances qu'il s'agisse d'une volonté de ne pas détailler les essences et donc de considérer cette catégorie comme un "fourre tout". Il convient donc de les "obliger" à donner le nom des essences de leur déclaration. Si ils déclarent qu'il ne peuvent pas différencier les essences, leur demander alors une estimation de l'essence majoritaire et de son pourcentage approximatif : cela sera renseigné dans la bonne catégorie et le reste dans le 270.
+    <t>Généralités sur les grumes de conifères</t>
+  </si>
+  <si>
+    <t>Autres conifères (370)</t>
+  </si>
+  <si>
+    <t>Si une entreprise renseigne totalement sa récolte dans cette catégorie "Autres", il y a de fortes chances qu'il s'agisse d'une volonté de ne pas détailler les essences et donc de considérer cette catégorie comme un "fourre tout". Il convient donc de les "obliger" à donner le nom des essences de leur déclaration. S'ils déclarent qu'il ne peuvent pas différencier les essences, leur demander alors une estimation de l'essence majoritaire et de son pourcentage approximatif : cela sera renseigné dans la bonne catégorie et le reste dans le 270.
 Il convient de voir au préalable le département de récolte et de regarder s'il est situé dans les régions de la liste ci-dessous :</t>
   </si>
   <si>
@@ -698,6 +712,9 @@
   </si>
   <si>
     <t>Autres sapins (Nordmann, méditerranéen…)</t>
+  </si>
+  <si>
+    <t>Généralités sur les bois destinés à l'industrie</t>
   </si>
   <si>
     <t>Autres bois d'industrie feuillus (code 645)</t>
@@ -719,7 +736,10 @@
 Elle peut aussi concerner des bois destinés à être broyés en plaquettes ou des plaquettes réalisées en forêt DESTINEES au paillage ou autres utilisations (hors énergie, cf code 816)</t>
   </si>
   <si>
-    <t>Bois énergie : définitions</t>
+    <t>Généralités sur les bois destinés à l'énergie</t>
+  </si>
+  <si>
+    <t>Définitions du bois énergie</t>
   </si>
   <si>
     <t>La récolte de bois destinés à l'énergie nécessite des explications des différentes catégories (ci-dessous) :</t>
@@ -748,12 +768,6 @@
     <t>Ce sont UNIQUEMENT des troncs qui sont broyés en forêt et non pas destinés à être transformés hors forêt en plaquettes forestières.</t>
   </si>
   <si>
-    <t>Onglet Recolte9K99</t>
-  </si>
-  <si>
-    <t>La récolte de bois peut être due à des facteurs accidentels (tempête, incendies, neiges lourdes...) ou sanitaires (attaques d'insectes, maladies, sécheresse...). Il peut donc y avoir des variations d'une année sur l'autre importante. Cependant, l'évolution de ces volumes est à surveiller notamment dans le cas des récoltes sanitaires dues aux attaques de scolytes sur épicéas essentiellement mais aussi sur sapin. Concernant les recoltes sanitaires, les autres essences peuvent être touchées dans une moindre mesure par d'autres insectes (spirale, dendroctone, bupreste...) et des bactérie comme la chalarose du Frêne...</t>
-  </si>
-  <si>
     <t>Bois "scié, transformés ou utilisé pour produire de l'énergie"</t>
   </si>
   <si>
@@ -767,10 +781,22 @@
     <t>Ces exploitants peuvent éventuellement utiliser une partie de leur récolte pour produire de l'énergie sur leur site. Dans ce cas, cela concerne uniquement la catégorie du bois énergie. Par conséquent, un exploitant "pur" ne peut pas déclarer utiliser des "grumes" destinées au sciages.</t>
   </si>
   <si>
-    <t>Onglet DestRecolte</t>
+    <t>Récolte utilisée par l'entreprise, produits sanitaires/produits accidentels</t>
+  </si>
+  <si>
+    <t>Généralités sur la récolte de bois, accidentels/sanitaires</t>
+  </si>
+  <si>
+    <t>La récolte de bois peut être due à des facteurs accidentels (tempête, incendies, neiges lourdes...) ou sanitaires (attaques d'insectes, maladies, sécheresse...). Il peut donc y avoir des variations d'une année sur l'autre importante. Cependant, l'évolution de ces volumes est à surveiller notamment dans le cas des récoltes sanitaires dues aux attaques de scolytes sur épicéas essentiellement mais aussi sur sapin. Concernant les recoltes sanitaires, les autres essences peuvent être touchées dans une moindre mesure par d'autres insectes (spirale, dendroctone, bupreste...) et des bactérie comme la chalarose du Frêne...</t>
+  </si>
+  <si>
+    <t>Généralités sur la provenance de bois récoltés </t>
   </si>
   <si>
     <t>Il s'agit de savoir si le bois récolté provient de forêts ou d'autres zones comme les parcs, arbres d'alignement (bord de route nationale, départementale…), particuliers…</t>
+  </si>
+  <si>
+    <t>Questions posées par les utilisateurs ?</t>
   </si>
   <si>
     <t>La récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, sauf que je n'ai rien en bois de trituration ni en bois énergie de déclarer.
@@ -780,10 +806,10 @@
     <t>Concernant le fait que la récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, c'est une question qui n'est pas facile à trancher.
 En effet, généralement pour les résineux, les branches sont laissées sur place en forêt et non utilisées.
 Pour les feuillus et à fortiori le chêne (qui a des grosses branches), les rémanents de coupe (tout ce qui n'est pas le tronc ou grume selon son appellation) sont soit :
-- laissés sur place donc non valorisés (rare)
-- laissés sur place par l'exploitant mais valorisés par le propriétaire du foncier donc non commercialisé
-- laissés sur place par l'exploitant (vendus ou non) mais valorisés par une entreprise "spécialisée" dans ce type de bois (donc commercialisé) pour vendre des bûches de bois énergie ou bien pour les broyer afin de faire des plaquettes forestières
-- récupérés/valorisés par l'exploitant et donc déclarés par celui-ci en bois d'industrie ou bois énergie (BI/BE).
+ - laissés sur place donc non valorisés (rare)
+ - laissés sur place par l'exploitant mais valorisés par le propriétaire du foncier donc non commercialisé
+ - laissés sur place par l'exploitant (vendus ou non) mais valorisés par une entreprise "spécialisée" dans ce type de bois (donc commercialisé) pour vendre des bûches de bois énergie ou bien pour les broyer afin de faire des plaquettes forestières
+ - récupérés/valorisés par l'exploitant et donc déclarés par celui-ci en bois d'industrie ou bois énergie (BI/BE).
 Or dans le cadre de l'enquête internationale, nous sommes "en théorie" obligé de déclarer tout bois qui sort de la forêt (branches jusqu'au diamètre de 7,5 cm, donc pas les feuilles) ainsi que les souches, lorsqu'il y a dessouchage (essentiellement pour le pin maritime dans le massif des Landes).
 Par conséquent, les volumes de l'enquête EXF sont par défaut (et non par excès).
 Malheureusement l'absence de BI/BE pour des feuillus est un "manque" de volume par rapport à notre définition.
@@ -793,7 +819,7 @@
     <t>Suite au passage de SPIN-Epicea à Sapin ou Epicéa, aurais-tu une idée simple pour estimer les volumes de sapins et d'épicéas.
 Nous connaissons le volume total Sapins + épicéas de 2018. Comment répartir au mieux cette somme en 2019 entre Sapins et épicéas ?
 Cela dépend des départements ?
-Lesquels ? </t>
+Lesquels ?</t>
   </si>
   <si>
     <t>A la lumière des données de l'Inventaire Forestier National et avec une volonté de simplification (mais tu peux encore plus simplifier...), voici ma proposition par région (et quelques départements atypiques) :</t>
@@ -810,7 +836,7 @@
   </si>
   <si>
     <r>
-      <t>Il faut obligatoirement la rappeler et lui demander explicitement : "Est-ce que la totalité du bois que vous avez récolté a été vendu à des tiers ?". </t>
+      <t>Il faut obligatoirement la rappeler et lui demander explicitement : "Est-ce que la totalité du bois que vous avez récolté a été vendu à des tiers ?".</t>
     </r>
     <r>
       <rPr>
@@ -825,7 +851,7 @@
   </si>
   <si>
     <t>déclaré 10 m3r de poteaux feuillus. Quel est le mot important : poteaux ou feuillus ?
-Car la mention "dont poteaux" est sur la ligne des conifères... </t>
+Car la mention "dont poteaux" est sur la ligne des conifères...</t>
   </si>
   <si>
     <t>La mention dont poteaux pour les conifères vient du fait qu'il y a quelques années nous individualisions les poteaux.
@@ -857,10 +883,10 @@
 Par contre, il n'est pas attendu de partie en SRI, donc cela déclenche un contrôle majeur que vous pourrez forcer.</t>
   </si>
   <si>
-    <t>Un exploitant forestier a indiqué les volumes de pin maritime en grumes et billons en stère, existe t'il un coefficient de conversion de stère à m3 sur écorce pour les PM en grumes </t>
-  </si>
-  <si>
-    <t>en effet dans nos tableaux de conversion, ce cas de figure n'existe pas si ce sont des grumes destinées au sciage : est-ce le cas ?
+    <t>Un exploitant forestier a indiqué les volumes de pin maritime en grumes et billons en stère, existe t'il un coefficient de conversion de stère à m3 sur écorce pour les PM en grumes</t>
+  </si>
+  <si>
+    <t>En effet dans nos tableaux de conversion, ce cas de figure n'existe pas si ce sont des grumes destinées au sciage : est-ce le cas ?
 Dans le cas de figure où ces pins maritimes sont destinés à la trituration ou autre bois d'industrie, nous avons le coefficient dans le tableau : 0,85 m3 par stère de rondins en 2m
 Si ce sont des grumes de sciages alors c'est mieux de demander le tonnage (il doit l'avoir sûrement car la vente et surtout le transport se font généralement en tonnes).
 Dans le pire des cas, on prend le même coef que pour trituration, à savoir 0,85 m3 par stère.</t>
@@ -879,7 +905,7 @@
 - Ou bien se référer au tableau de conversion "Autres bois d'industrie" et choisir le coef 1.40 pour passer de tonne brute en m3rond au titre des  bois d'industrie divers feuillus  ?</t>
   </si>
   <si>
-    <t>dans ce cas, il s'agit de "Autres bois d'industrie" dans le questionnaire et que l'unité demandée est le m3r.
+    <t>Dans ce cas, il s'agit de "Autres bois d'industrie" dans le questionnaire et que l'unité demandée est le m3r.
 La donnée fournie par l'entreprise est des tonnes de Chataignier pour faire des piquets, donc ce sont forcément des bois de faible diamètre.
 C'est pour cela qu'il faut utiliser le coef de 1,40 correspondant aux "Autres bois d'industrie feuillus".</t>
   </si>
@@ -887,28 +913,27 @@
     <t>Un exploitant forestier vend une quarantaine de stères de résineux et de peupliers à un producteur de sapins de Noël qui les détaille en pieds de sapin. Dans quelle catégorie les saisit on?</t>
   </si>
   <si>
-    <t>il faut classer ces volumes dans la catégorie "Autres bois d'industrie", Conifères.
-</t>
+    <t>Il faut classer ces volumes dans la catégorie "Autres bois d'industrie", Conifères.</t>
   </si>
   <si>
     <t>Un exploitant forestier m'a demandé si nous avions une formule pour calculer le volume de grume par camion.
 Il utilise le calcul suivant : longueur * largeur * hauteur * 0.7
-A-t-on une formule pour lui faciliter la tâche. </t>
-  </si>
-  <si>
-    <t>ans le cas d'un volume de grumes de longueur minimale de 2 m, nous pouvons en effet valider la formule que cet exploitant utilise avec un coefficient que varie selon la nature du bois transporté :
+A-t-on une formule pour lui faciliter la tâche.</t>
+  </si>
+  <si>
+    <t>Dans le cas d'un volume de grumes de longueur minimale de 2 m, nous pouvons en effet valider la formule que cet exploitant utilise avec un coefficient que varie selon la nature du bois transporté :
 - volume en m3r sur écorce pour les résineux : longueur * largeur * hauteur * 0,7
 - volume en m3r sous écorce pour les résineux : longueur * largeur * hauteur * 0,65 (puis convertir sur écorce avec coef selon les essences dans tableau en rappel en pj)
 - volume en m3r sur écorce pour les feuillus : longueur * largeur * hauteur * 0,65
 Ces résultats sont en m3 et sont à conserver tels quels pour les grumes destinées au sciage.
-Attention, si ces bois sont destinés à la trituration ou à l'énergie, il faudra alors les convertir en tonne </t>
+Attention, si ces bois sont destinés à la trituration ou à l'énergie, il faudra alors les convertir en tonne</t>
   </si>
   <si>
     <t>Comment renseigner une scierie qui propose seulement du bois de chauffage. Est-elle dans le champ activité de sciage.
 Cette entreprise récolte 50m3 de bois en forêt et en achète 300m3 pour le scier et le vendre en bois de chauffage.</t>
   </si>
   <si>
-    <t>cette entreprise réalise du fendage (et non du sciage) pour vendre son bois en bois de chauffage.
+    <t>Cette entreprise réalise du fendage (et non du sciage) pour vendre son bois en bois de chauffage.
 Par conséquent, elle n'est pas dans le champ SRI.
 Elle doit uniquement répondre au volet EXF, donc 50 m3 ; le reste étant une activité de vente de bois de chauffage, en dehors de notre champ.</t>
   </si>
@@ -932,18 +957,16 @@
 Comment doit-on classer ces bardeaux dans l'enquête.</t>
   </si>
   <si>
-    <t>Ces bardeaux sont à renseigner dans le questionnaire EXF au niveau du code 645 Autres bois d'industrie feuillus.
-</t>
+    <t>Ces bardeaux sont à renseigner dans le questionnaire EXF au niveau du code 645 Autres bois d'industrie feuillus.</t>
   </si>
   <si>
     <t>Un exploitant récupère des taillis le long des routes pour les sociétés SAPN, EDF et aussi quelques particuliers.
 Une fois ces taillis récupérés à titre gratuit, ils les transforment pour faire des plaquettes.
 Pourriez-vous me confirmer si le dossier 017620 est hors champs ou pas?
-Sinon, où faut il remplir pour indiquer ces quantités de taillis?
-</t>
-  </si>
-  <si>
-    <t>si l'entreprise les coupe elle-même alors elle doit en effet les déclarer dans plaquettes forestières code 816</t>
+Sinon, où faut il remplir pour indiquer ces quantités de taillis?</t>
+  </si>
+  <si>
+    <t>Si l'entreprise les coupe elle-même alors elle doit en effet les déclarer dans plaquettes forestières code 816</t>
   </si>
   <si>
     <t>Onglet SriSciage : généralités</t>
@@ -960,7 +983,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> Il peut y avoir des variations d'une année sur l'autre mais elle est généralement faible car une scierie doit fonctionner au maximum de sa capacité de production afin de dégager des bénéfices. Cette déclaration se fait par établissement. Si l'entreprise réalise uniquement des sciages à façon (sciage réalisé sur des bois dont ils ne sont pas propriétaires), elle est alors prestataire de service. Dans ce cas, elle rempli uniquement la colonne 6 dans l'onglet SriProduit.</t>
+      <t>Il peut y avoir des variations d'une année sur l'autre mais elle est généralement faible car une scierie doit fonctionner au maximum de sa capacité de production afin de dégager des bénéfices. Cette déclaration se fait par établissement. Si l'entreprise réalise uniquement des sciages à façon (sciage réalisé sur des bois dont ils ne sont pas propriétaires), elle est alors prestataire de service. Dans ce cas, elle rempli uniquement la colonne 6 dans l'onglet SriProduit.</t>
     </r>
   </si>
   <si>
@@ -974,7 +997,7 @@
   </si>
   <si>
     <r>
-      <t>L'entreprise doit déclarer </t>
+      <t>L'entreprise doit déclarer</t>
     </r>
     <r>
       <rPr>
@@ -995,7 +1018,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>. Elle remplira donc ces volumes dans l'onglet SriProduit en colonne 3, </t>
+      <t>. Elle remplira donc ces volumes dans l'onglet SriProduit en colonne 3,</t>
     </r>
     <r>
       <rPr>
@@ -1016,7 +1039,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> (et 4 pour leur valeur).</t>
+      <t>(et 4 pour leur valeur).</t>
     </r>
   </si>
   <si>
@@ -1030,7 +1053,7 @@
   </si>
   <si>
     <r>
-      <t>Attention, les volumes des essences déclarées dans EXF comme utilisée par l'entreprise (onglet RECOLTE9k99) </t>
+      <t>Attention, les volumes des essences déclarées dans EXF comme utilisée par l'entreprise (onglet RECOLTE9k99)</t>
     </r>
     <r>
       <rPr>
@@ -1041,7 +1064,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>doivent obligatoirement </t>
+      <t>doivent obligatoirement</t>
     </r>
     <r>
       <rPr>
@@ -1051,7 +1074,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>se retrouver dans les essences sciées. Exemple : une entreprise exploitant des sapins déclarés comme utilisé par l'entreprise doit dans sa déclaration de sciage avoir des volumes de sapins sciés : </t>
+      <t>se retrouver dans les essences sciées. Exemple : une entreprise exploitant des sapins déclarés comme utilisé par l'entreprise doit dans sa déclaration de sciage avoir des volumes de sapins sciés :</t>
     </r>
     <r>
       <rPr>
@@ -1076,8 +1099,7 @@
   </si>
   <si>
     <t>Un plot est un sciage d'une grume logitudinalement qui conserve donc une zone brute écorcée ou non.
-Il est composés de dosses et quartiers (mot de vocabulaire importants si une scierie vous les donne).
-</t>
+Il est composés de dosses et quartiers (mot de vocabulaire importants si une scierie vous les donne).</t>
   </si>
   <si>
     <t>Définition des "avivés"</t>
@@ -1105,7 +1127,7 @@
     <t>Autres pins (3505 et 3506)</t>
   </si>
   <si>
-    <t>Attention, depuis 2022, tous les pins sont à remplir dans cette catégorie. Avant, les pins noir, d'Alep, Laricio étaient déclarés dans "Autres conifères". </t>
+    <t>Attention, depuis 2022, tous les pins sont à remplir dans cette catégorie. Avant, les pins noir, d'Alep, Laricio étaient déclarés dans "Autres conifères".</t>
   </si>
   <si>
     <t>Autres conifères (3545)</t>
@@ -1125,7 +1147,7 @@
     <t>Le SERFOB m'interroge sur la disponibilité de données d'approvisionnement géographique en grumes des scieries, cette donnée est demandé dans le questionnaire 
 Mais il semble que dans les cubes ADEL, cette information ne soit pas reprise dans un cube SRI, y compris un cube statisticien.
 https://agreste.agriculture.gouv.fr/agreste-web/disaron/SCINR06/detail/
-Pouvez-vous me confirmer ce point ? </t>
+Pouvez-vous me confirmer ce point ?</t>
   </si>
   <si>
     <t>je vous confirme que cette donnée selon la provenance géographique des bois ne fait en effet l'objet d'aucune publication, ni papier, ni dans un cube.
@@ -1144,8 +1166,7 @@
   </si>
   <si>
     <r>
-      <t>A la lecture du questionnaire, je pense que l'entreprise a renseigné dans la page 3, colonne 1 et 2 les quantités de palettes et leur facturation (données qui ne seront pas reprise car non demandée).
-</t>
+      <t>A la lecture du questionnaire, je pense que l'entreprise a renseigné dans la page 3, colonne 1 et 2 les quantités de palettes et leur facturation (données qui ne seront pas reprise car non demandée).</t>
     </r>
     <r>
       <rPr>
@@ -1184,8 +1205,7 @@
     <t>aimerai m'assurer de l'éligibilité à l'enquête SRI d'une entreprise de fabrication d'emballages légers en bois (cagettes...).
 Celle-ci m'a indiqué qu'elle achète des grumes de peupliers qui sont découpés en tasseaux de 30 mm dans un premier temps, avant de passer en déroulage (&lt; 6 mm) pour la fabrication des cagettes.
 Au vu des instructions, cette entreprise semble éligible au regard de la première transformation du bois. Pouvez-vous confirmer ?
-Mais quelle est la différence avec une même entreprise dont les grumes passent directement en déroulage (inf à 6 mm) et qui ne serait alors plus éligible ?
-</t>
+Mais quelle est la différence avec une même entreprise dont les grumes passent directement en déroulage (inf à 6 mm) et qui ne serait alors plus éligible ?</t>
   </si>
   <si>
     <t>Un tasseau est une baguette de bois, dans le cas que tu évoques de 30 mm d'épaisseur.
@@ -1202,8 +1222,7 @@
 Si oui, quelles lignes du questionnaire SRI faut-il renseigner ?</t>
   </si>
   <si>
-    <t>si fabrication sans exploitation et sans sciage (achat à 100 % de planche pour fabriquer des palettes et de sciures pour fabriques des pellets) alors hors champ
-</t>
+    <t>si fabrication sans exploitation et sans sciage (achat à 100 % de planche pour fabriquer des palettes et de sciures pour fabriques des pellets) alors hors champ</t>
   </si>
   <si>
     <t>Onglet SriProduits : généralités</t>
@@ -1296,7 +1315,7 @@
   </si>
   <si>
     <r>
-      <t>Il faut obligatoirement la rappeler et lui demander explicitement : "Est-ce que la totalité de votre production vendue a été réalisée par sous traitance ?". </t>
+      <t>Il faut obligatoirement la rappeler et lui demander explicitement : "Est-ce que la totalité de votre production vendue a été réalisée par sous traitance ?".</t>
     </r>
     <r>
       <rPr>
@@ -1322,7 +1341,7 @@
     <t>Pour ce qui font que du sciage à façon, ont -ils l'obligation de renseigner les connexes car parfois ils les laisse sur place ?</t>
   </si>
   <si>
-    <t> ils ont obligation de renseigner cette partie et si ils sont laissés sur place, ils doivent les mettre dans "Autres productions" quand c'est donné ou laissé sur place.
+    <t>ils ont obligation de renseigner cette partie et si ils sont laissés sur place, ils doivent les mettre dans "Autres productions" quand c'est donné ou laissé sur place.
 Donc dans tous les cas, ils doivent le remplir</t>
   </si>
   <si>
@@ -1331,7 +1350,7 @@
 Dans ce tableau Autres produits transformés, peut-être vaudrait-il mieux séparer ces trois postes de travail à façon (5500, 5515, 5535) du reste des autres produits transformés pour un faire un tableau à part (il s'agit d'une vente d'une prestation de service et non d'un produit/d'une production) ?</t>
   </si>
   <si>
-    <t> Nous avons ajouté un exemple de remplissage dans la notice SRI (cf.notice ci-jointe) qui serait envoyée en même temps que la lettre de lancement aux enquêtés en début de semaine prochaine. Par contre, nous ne pouvons pas intégrer cet exemple dans la notice SRI présente sous CAWI car nous recevons la production CAWI demain.
+    <t>Nous avons ajouté un exemple de remplissage dans la notice SRI (cf.notice ci-jointe) qui serait envoyée en même temps que la lettre de lancement aux enquêtés en début de semaine prochaine. Par contre, nous ne pouvons pas intégrer cet exemple dans la notice SRI présente sous CAWI car nous recevons la production CAWI demain.
 Concernant votre remarque de griser les cases non concernées,  nous pouvons avoir le cas d'un sous traitant qui fait également appel à un autre sous traitant.
 L'entreprise A réalise des prestations d'injection ou imprégnation du bois (à façon).
 L'entreprise B confie 100 m3 de bois à l'entreprise A pour imprégnation de poteaux de conifères.
@@ -1367,7 +1386,7 @@
     <t>Notre enquête répond aux demandes de la Commission Européenne concernant l'outil productif. Ces données recueillies par notre ministère pour Eurostat s'appellent des données PRODCOM (production communautaire).
 Les informations concernant l'imprégnation de bois que nous demandons page 4 du questionnaire sont donc essentielles et correspondent bien à l'activité de votre entreprise, à savoir :
 - le volume de bois injectés ou imprégnés (codes de l'enquête 5400, 5415 et 5435) qui vous appartiennent
-- le volume de bois (ne vous appartenant pas) qui vous injectés ou imprégnés en tant que prestataire de service pour une autre entreprise (codes de l'enquête 5500, 5515 et 5535) </t>
+- le volume de bois (ne vous appartenant pas) qui vous injectés ou imprégnés en tant que prestataire de service pour une autre entreprise (codes de l'enquête 5500, 5515 et 5535)</t>
   </si>
   <si>
     <t>Que fait-on si l'entreprise ne veut pas déclarer son chiffre d'affaire par produit après un contact téléphonique ?</t>
@@ -1385,7 +1404,7 @@
   </si>
   <si>
     <t>Le Questionnaire xxx a déclaré à notre enquêtrice qu'il avait seulement des billons et qu'il les transformait pour faire des glissières de sécurité.
-Où faut remplir et peut le faire? </t>
+Où faut remplir et peut le faire?</t>
   </si>
   <si>
     <t>il convient de s'assurer que l'entreprise a ou non une activité d'exploitant forestier.
@@ -1426,8 +1445,7 @@
     <r>
       <t>Les connexes qui ne sont pas vendus sont soit :
 - utilisés par l'entreprise pour fabriquer des produits qui seront valorisés (ex : granulés/pellets)
-- utilisés par l'entreprise à des fins de production d'énergie, par ex pour alimenter leur chaufferie. 
-</t>
+- utilisés par l'entreprise à des fins de production d'énergie, par ex pour alimenter leur chaufferie.</t>
     </r>
     <r>
       <rPr>
@@ -1438,8 +1456,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>- cédés à titre gracieux ou euro symbolique =&gt; à classer dans "Autres productions"
-</t>
+      <t>- cédés à titre gracieux ou euro symbolique =&gt; à classer dans "Autres productions"</t>
     </r>
     <r>
       <rPr>
@@ -1468,8 +1485,7 @@
 - générés par la fabrication de produits non concernés par l’enquête ex : tranchage, palettes
 Donc je pense qu'en 2020, l'entreprise a dû déclarer la totalité de ses connexes, y compris ceux issus de la fabrication des palettes...
 Ceci pourrait expliquer pourquoi les volumes de 2019 étaient bien inférieurs.
-Je sais que cela doit être difficile pour l'entreprise de distinguer l'origine des connexes : elle fait au mieux...
-</t>
+Je sais que cela doit être difficile pour l'entreprise de distinguer l'origine des connexes : elle fait au mieux...</t>
   </si>
   <si>
     <t>Que fait-on si l'entreprise ne peut/veut pas déclarer de connexes après un contact téléphonique ?</t>
@@ -1612,12 +1628,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1654,7 +1676,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1673,6 +1695,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1760,6 +1794,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1767,16 +1861,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>625680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4179600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4206240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>952920</xdr:rowOff>
+      <xdr:rowOff>943560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1789,8 +1883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="598680" y="190080"/>
-          <a:ext cx="3580920" cy="953280"/>
+          <a:off x="1915920" y="181080"/>
+          <a:ext cx="3580560" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,16 +1898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3998520</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4025160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1591200</xdr:rowOff>
+      <xdr:rowOff>1581840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,8 +1920,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46080" y="1371600"/>
-          <a:ext cx="3952440" cy="1391040"/>
+          <a:off x="1363320" y="1362600"/>
+          <a:ext cx="3952080" cy="1390680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1846,16 +1940,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2855880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2882880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7818120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1490760</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7844760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1481400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1868,8 +1962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6565320" y="17107200"/>
-          <a:ext cx="4962240" cy="1347480"/>
+          <a:off x="11732760" y="16536240"/>
+          <a:ext cx="4961880" cy="1347120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,16 +1982,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6259680</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6286680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>381600</xdr:rowOff>
+      <xdr:rowOff>372600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8217000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8243640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1910,8 +2004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9988920" y="3048480"/>
-          <a:ext cx="1957320" cy="1790280"/>
+          <a:off x="11306160" y="3039480"/>
+          <a:ext cx="1956960" cy="456480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,16 +2019,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7094520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7121520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8875440</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8902080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>752760</xdr:rowOff>
+      <xdr:rowOff>743400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1947,8 +2041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10823760" y="4783320"/>
-          <a:ext cx="1780920" cy="741240"/>
+          <a:off x="12141000" y="3440880"/>
+          <a:ext cx="1780560" cy="740880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,19 +2062,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="114.285714285714"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.8622448979592"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,15 +2151,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2082,190 +2167,197 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="46.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="186.290816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="46.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="186.290816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="88.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="187.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+    <row r="13" customFormat="false" ht="188.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="C16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="0"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="D21" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>60</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2284,65 +2376,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="152.857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="152.857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>66</v>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>68</v>
+      <c r="C6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2362,375 +2461,564 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="52.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="145.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="41.5663265306123"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="145.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>70</v>
+    <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>72</v>
+      <c r="A3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>74</v>
+      <c r="A4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="C5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>78</v>
+      <c r="A6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>82</v>
+      <c r="A7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>84</v>
+      <c r="A9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>86</v>
+      <c r="A10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>88</v>
+      <c r="C11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>90</v>
+      <c r="A12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>92</v>
+      <c r="A13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>94</v>
+      <c r="A14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>96</v>
+      <c r="A15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>96</v>
+      <c r="A16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>99</v>
+      <c r="A17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>101</v>
+      <c r="A18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>103</v>
+      <c r="A19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>105</v>
+      <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>107</v>
+      <c r="A21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>109</v>
+      <c r="A22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>115</v>
+      <c r="C23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="201.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="A26" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
+    <row r="27" customFormat="false" ht="201.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
+      <c r="D27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="13" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
+      <c r="D28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="13" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="13" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>135</v>
       </c>
+      <c r="D30" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="A38" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>151</v>
       </c>
-    </row>
+      <c r="D38" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2748,197 +3036,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="52.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="145.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="52.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="145.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>153</v>
+      <c r="C2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>155</v>
+      <c r="C3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>157</v>
+      <c r="C4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>159</v>
+      <c r="C5" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>161</v>
+      <c r="C6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>165</v>
+      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>167</v>
+      <c r="C9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>169</v>
+      <c r="C10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>171</v>
+      <c r="C11" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>173</v>
+      <c r="C12" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>175</v>
+      <c r="C13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>177</v>
+      <c r="C14" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="D16" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>179</v>
+      <c r="C17" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>181</v>
+      <c r="C18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>183</v>
+      <c r="C19" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>185</v>
+      <c r="C20" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>189</v>
+      <c r="C21" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>191</v>
+      <c r="C23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2958,197 +3253,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="56.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="145.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="56.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="145.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>193</v>
+      <c r="C2" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>195</v>
+      <c r="C3" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>197</v>
+      <c r="C4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>199</v>
+      <c r="C5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>201</v>
+      <c r="C6" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>163</v>
+      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>202</v>
+      <c r="C8" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>173</v>
+      <c r="C9" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>205</v>
+      <c r="C10" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="0"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="D12" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="185.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>207</v>
+      <c r="C13" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>209</v>
+      <c r="C14" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>211</v>
+      <c r="C15" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>213</v>
+      <c r="C16" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>215</v>
+      <c r="C17" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>217</v>
+      <c r="C18" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>219</v>
+      <c r="C19" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>221</v>
+      <c r="C20" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>223</v>
+      <c r="C21" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="249" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>225</v>
+      <c r="C22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>227</v>
+      <c r="C23" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3167,85 +3469,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="55.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="145.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="55.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="145.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="D7" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>235</v>
+      <c r="C8" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>237</v>
+      <c r="C9" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3264,109 +3573,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="57.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="145.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="57.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="145.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>239</v>
+      <c r="C2" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>241</v>
+      <c r="C3" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="16" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="D12" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3385,65 +3701,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="146.571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="146.571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7091836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>255</v>
+      <c r="C2" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>257</v>
+      <c r="C3" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>259</v>
+      <c r="C4" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>261</v>
+      <c r="C5" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>263</v>
+      <c r="C6" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
